--- a/files/符号.xlsx
+++ b/files/符号.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,12 +28,19 @@
   <si>
     <t>□</t>
   </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≤</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +70,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -86,7 +109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -94,6 +117,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -400,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -420,6 +449,20 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
